--- a/Jupyter/simulationID/cim_0324_0620/data/bldg/before_209_6.xlsx
+++ b/Jupyter/simulationID/cim_0324_0620/data/bldg/before_209_6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>appUnits</t>
   </si>
@@ -49,10 +49,22 @@
     <t>status</t>
   </si>
   <si>
+    <t>renewd</t>
+  </si>
+  <si>
+    <t>PlanID</t>
+  </si>
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
     <t>209_6</t>
   </si>
   <si>
     <t>Demolished</t>
+  </si>
+  <si>
+    <t>before</t>
   </si>
 </sst>
 </file>
@@ -410,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +462,17 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -462,7 +483,7 @@
         <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>19101.66666666667</v>
@@ -486,10 +507,19 @@
         <v>610.9652000000001</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>20140231</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -500,7 +530,7 @@
         <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>19101.66666666667</v>
@@ -524,10 +554,19 @@
         <v>610.9652000000001</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>20140231</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -538,7 +577,7 @@
         <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>19101.66666666667</v>
@@ -562,10 +601,19 @@
         <v>610.9652000000001</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>20140231</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -576,7 +624,7 @@
         <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>19101.66666666667</v>
@@ -600,10 +648,19 @@
         <v>610.9652000000001</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>20140231</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -614,7 +671,7 @@
         <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>19101.66666666667</v>
@@ -638,10 +695,19 @@
         <v>610.9652000000001</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>20140231</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -652,7 +718,7 @@
         <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>19101.66666666667</v>
@@ -676,7 +742,16 @@
         <v>610.9652000000001</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>20140231</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
